--- a/Unity/Assets/Config/Excel/CastClientConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastClientConfig.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -46,6 +46,24 @@
     <t>CastHitAnimation</t>
   </si>
   <si>
+    <t>CastStartFx</t>
+  </si>
+  <si>
+    <t>CastStartFxBindPoint</t>
+  </si>
+  <si>
+    <t>CastStartFxTime</t>
+  </si>
+  <si>
+    <t>CastHitFx</t>
+  </si>
+  <si>
+    <t>CastHitFxBindPoint</t>
+  </si>
+  <si>
+    <t>CastHitFxTime</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -55,36 +73,72 @@
     <t>string</t>
   </si>
   <si>
+    <t>string?</t>
+  </si>
+  <si>
+    <t>ModelBindPoint</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>技能编号</t>
+  </si>
+  <si>
+    <t>技能描述</t>
+  </si>
+  <si>
+    <t>技能起手动画</t>
+  </si>
+  <si>
+    <t>技能受击动画</t>
+  </si>
+  <si>
+    <t>技能起手特效</t>
+  </si>
+  <si>
+    <t>技能起手特效绑点</t>
+  </si>
+  <si>
+    <t>技能起手特效时长</t>
+  </si>
+  <si>
+    <t>技能命中特效</t>
+  </si>
+  <si>
+    <t>技能命中特效绑点</t>
+  </si>
+  <si>
+    <t>技能命中特效时长</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Fx/fx5.prefab</t>
+  </si>
+  <si>
+    <t>胸部绑点</t>
+  </si>
+  <si>
+    <t>顺劈斩</t>
+  </si>
+  <si>
+    <t>冲锋</t>
+  </si>
+  <si>
     <t>c</t>
   </si>
   <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>技能编号</t>
-  </si>
-  <si>
-    <t>技能描述</t>
-  </si>
-  <si>
-    <t>技能起手动画</t>
-  </si>
-  <si>
-    <t>技能受击动画</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>顺劈斩</t>
-  </si>
-  <si>
-    <t>冲锋</t>
-  </si>
-  <si>
     <t>冰箭术</t>
   </si>
   <si>
@@ -92,9 +146,6 @@
   </si>
   <si>
     <t>暴风雪</t>
-  </si>
-  <si>
-    <t>string?</t>
   </si>
   <si>
     <t>技能描述（不导出）</t>
@@ -119,7 +170,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +180,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -616,138 +673,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -787,6 +844,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1113,25 +1171,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D20" sqref="D20"/>
+      <selection pane="topRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.75" style="12" customWidth="1"/>
     <col min="2" max="2" width="29" style="12" customWidth="1"/>
     <col min="3" max="3" width="20.25" style="12" customWidth="1"/>
     <col min="4" max="4" width="21" style="12" customWidth="1"/>
     <col min="5" max="5" width="18.25" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="12"/>
+    <col min="6" max="7" width="29.875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="12" customWidth="1"/>
+    <col min="9" max="10" width="29.875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="17.125" style="12" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1147,35 +1209,65 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:11">
       <c r="A2" s="8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:2">
       <c r="A4" s="10" t="s">
@@ -1185,67 +1277,160 @@
     </row>
     <row r="5" s="5" customFormat="1" spans="1:2">
       <c r="A5" s="11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:5">
+    <row r="6" s="1" customFormat="1" spans="1:11">
       <c r="A6" s="7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="2:11">
       <c r="B7" s="12">
         <v>110001</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
+        <v>29</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12">
+        <v>3000</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="2:11">
       <c r="B8" s="12">
         <v>120001</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
+        <v>29</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="12">
+        <v>3000</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" spans="2:10">
       <c r="B9" s="12">
         <v>130001</v>
       </c>
-    </row>
-    <row r="10" spans="2:4">
+      <c r="G9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="2:11">
       <c r="B10" s="12">
         <v>140001</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
+        <v>29</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="12">
+        <v>3000</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" spans="2:10">
       <c r="B11" s="12">
         <v>150001</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1257,23 +1442,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="29" style="6" customWidth="1"/>
     <col min="3" max="3" width="27.75" style="6" customWidth="1"/>
     <col min="4" max="4" width="20" style="6" customWidth="1"/>
     <col min="5" max="5" width="18.25" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="6"/>
+    <col min="6" max="7" width="29.875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="6" customWidth="1"/>
+    <col min="9" max="10" width="29.875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="17.125" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1289,34 +1478,70 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:11">
       <c r="A2" s="8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:5">
       <c r="A3" s="9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B3" s="9"/>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:2">
@@ -1327,48 +1552,118 @@
     </row>
     <row r="5" s="5" customFormat="1" spans="1:2">
       <c r="A5" s="11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:5">
+    <row r="6" s="1" customFormat="1" spans="1:11">
       <c r="A6" s="7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="2:11">
       <c r="B7" s="6">
         <v>210001</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
+        <v>37</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12">
+        <v>3000</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="2:11">
       <c r="B8" s="6">
         <v>210002</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="12">
+        <v>3000</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="6:11">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="6:11">
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1379,22 +1674,26 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="3" width="29" style="6" customWidth="1"/>
     <col min="4" max="4" width="20" style="6" customWidth="1"/>
     <col min="5" max="5" width="18.25" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="6"/>
+    <col min="6" max="7" width="29.875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="6" customWidth="1"/>
+    <col min="9" max="10" width="29.875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="17.125" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1410,34 +1709,70 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:11">
       <c r="A2" s="8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:5">
       <c r="A3" s="9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B3" s="9"/>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:2">
@@ -1448,58 +1783,130 @@
     </row>
     <row r="5" s="5" customFormat="1" spans="1:2">
       <c r="A5" s="11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:5">
+    <row r="6" s="1" customFormat="1" spans="1:11">
       <c r="A6" s="7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="2:11">
       <c r="B7" s="6">
         <v>310001</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
+        <v>37</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12">
+        <v>3000</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="2:11">
       <c r="B8" s="6">
         <v>310002</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
+        <v>37</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="12">
+        <v>3000</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" spans="2:11">
       <c r="B9" s="6">
         <v>310003</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="12">
+        <v>3000</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="12">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/CastClientConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastClientConfig.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25350" windowHeight="10455" tabRatio="809"/>
+    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="809" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="战士" sheetId="6" r:id="rId1"/>
     <sheet name="法师" sheetId="7" r:id="rId2"/>
     <sheet name="牧师" sheetId="8" r:id="rId3"/>
+    <sheet name="骑士" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -37,6 +38,12 @@
     <t>Id</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
     <t>##Desc</t>
   </si>
   <si>
@@ -70,6 +77,9 @@
     <t>int#ref=CastConfigCategory</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -91,13 +101,16 @@
     <t>技能编号</t>
   </si>
   <si>
+    <t>技能名称</t>
+  </si>
+  <si>
     <t>技能描述</t>
   </si>
   <si>
     <t>技能起手动画</t>
   </si>
   <si>
-    <t>技能受击动画</t>
+    <t>技能命中动画</t>
   </si>
   <si>
     <t>技能起手特效</t>
@@ -121,15 +134,18 @@
     <t>attack</t>
   </si>
   <si>
+    <t>Assets/Bundles/Fx/fx1.prefab</t>
+  </si>
+  <si>
+    <t>胸部绑点</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Fx/fx5.prefab</t>
+  </si>
+  <si>
     <t>hurt</t>
   </si>
   <si>
-    <t>Assets/Bundles/Fx/fx5.prefab</t>
-  </si>
-  <si>
-    <t>胸部绑点</t>
-  </si>
-  <si>
     <t>顺劈斩</t>
   </si>
   <si>
@@ -142,9 +158,6 @@
     <t>冰箭术</t>
   </si>
   <si>
-    <t>sing</t>
-  </si>
-  <si>
     <t>暴风雪</t>
   </si>
   <si>
@@ -158,6 +171,12 @@
   </si>
   <si>
     <t>祛病术</t>
+  </si>
+  <si>
+    <t>真言术：盾</t>
+  </si>
+  <si>
+    <t>圣盾术</t>
   </si>
 </sst>
 </file>
@@ -1171,29 +1190,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J10" sqref="J10"/>
+      <selection pane="topRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.75" style="12" customWidth="1"/>
-    <col min="2" max="2" width="29" style="12" customWidth="1"/>
-    <col min="3" max="3" width="20.25" style="12" customWidth="1"/>
-    <col min="4" max="4" width="21" style="12" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="12" customWidth="1"/>
-    <col min="6" max="7" width="29.875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="12" customWidth="1"/>
-    <col min="9" max="10" width="29.875" style="12" customWidth="1"/>
-    <col min="11" max="11" width="17.125" style="12" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="12"/>
+    <col min="2" max="4" width="29" style="12" customWidth="1"/>
+    <col min="5" max="5" width="20.25" style="12" customWidth="1"/>
+    <col min="6" max="6" width="21" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="12" customWidth="1"/>
+    <col min="8" max="9" width="29.875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="12" customWidth="1"/>
+    <col min="11" max="12" width="29.875" style="12" customWidth="1"/>
+    <col min="13" max="13" width="17.125" style="12" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:13">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1227,45 +1246,57 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:13">
       <c r="A2" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="9"/>
     </row>
@@ -1277,160 +1308,204 @@
     </row>
     <row r="5" s="5" customFormat="1" spans="1:2">
       <c r="A5" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:11">
+    <row r="6" s="1" customFormat="1" spans="1:13">
       <c r="A6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" ht="17.25" spans="2:11">
+        <v>30</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="2:13">
       <c r="B7" s="12">
         <v>110001</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="C7" s="12" t="str">
+        <f t="shared" ref="C7:C11" si="0">_xlfn.CONCAT("castname_",B7)</f>
+        <v>castname_110001</v>
+      </c>
+      <c r="D7" s="12" t="str">
+        <f t="shared" ref="D7:D11" si="1">_xlfn.CONCAT("castdesc_",B7)</f>
+        <v>castdesc_110001</v>
+      </c>
+      <c r="E7" s="6"/>
       <c r="F7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="12">
+        <v>33</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="12">
         <v>3000</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="12">
+      <c r="K7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="12">
         <v>3000</v>
       </c>
     </row>
-    <row r="8" ht="17.25" spans="2:11">
+    <row r="8" ht="17.25" spans="2:13">
       <c r="B8" s="12">
         <v>120001</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="C8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>castname_120001</v>
+      </c>
+      <c r="D8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>castdesc_120001</v>
+      </c>
+      <c r="E8" s="6"/>
       <c r="F8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="12">
+        <v>33</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="12">
         <v>3000</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="12">
+      <c r="K8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="12">
         <v>3000</v>
       </c>
     </row>
-    <row r="9" ht="17.25" spans="2:10">
+    <row r="9" ht="17.25" spans="2:12">
       <c r="B9" s="12">
         <v>130001</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" ht="17.25" spans="2:11">
+      <c r="C9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>castname_130001</v>
+      </c>
+      <c r="D9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>castdesc_130001</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="2:13">
       <c r="B10" s="12">
         <v>140001</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>castname_140001</v>
+      </c>
+      <c r="D10" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>castdesc_140001</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="12">
+      <c r="G10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="12">
         <v>3000</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="12">
+      <c r="K10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="12">
         <v>3000</v>
       </c>
     </row>
-    <row r="11" ht="17.25" spans="2:10">
+    <row r="11" ht="17.25" spans="2:12">
       <c r="B11" s="12">
         <v>150001</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>32</v>
+      <c r="C11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>castname_150001</v>
+      </c>
+      <c r="D11" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>castdesc_150001</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1442,27 +1517,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="29" style="6" customWidth="1"/>
-    <col min="3" max="3" width="27.75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="20" style="6" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="6" customWidth="1"/>
-    <col min="6" max="7" width="29.875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="6" customWidth="1"/>
-    <col min="9" max="10" width="29.875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="17.125" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="6"/>
+    <col min="2" max="4" width="29" style="6" customWidth="1"/>
+    <col min="5" max="5" width="27.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="6" customWidth="1"/>
+    <col min="8" max="9" width="29.875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="17.125" style="6" customWidth="1"/>
+    <col min="11" max="12" width="29.875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="17.125" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:13">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1496,52 +1571,64 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:13">
       <c r="A2" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="9"/>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:2">
@@ -1552,118 +1639,140 @@
     </row>
     <row r="5" s="5" customFormat="1" spans="1:2">
       <c r="A5" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:11">
+    <row r="6" s="1" customFormat="1" spans="1:13">
       <c r="A6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" ht="17.25" spans="2:11">
+        <v>30</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="2:13">
       <c r="B7" s="6">
         <v>210001</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="6" t="str">
+        <f>_xlfn.CONCAT("castname_",B7)</f>
+        <v>castname_210001</v>
+      </c>
+      <c r="D7" s="6" t="str">
+        <f>_xlfn.CONCAT("castdesc_",B7)</f>
+        <v>castdesc_210001</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="I7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="12">
         <v>3000</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="12">
+      <c r="K7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="12">
         <v>3000</v>
       </c>
     </row>
-    <row r="8" ht="17.25" spans="2:11">
+    <row r="8" ht="17.25" spans="2:13">
       <c r="B8" s="6">
         <v>210002</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="12">
+      <c r="C8" s="6" t="str">
+        <f>_xlfn.CONCAT("castname_",B8)</f>
+        <v>castname_210002</v>
+      </c>
+      <c r="D8" s="6" t="str">
+        <f>_xlfn.CONCAT("castdesc_",B8)</f>
+        <v>castdesc_210002</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="12">
         <v>3000</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="12">
+      <c r="K8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="12">
         <v>3000</v>
       </c>
     </row>
-    <row r="9" spans="6:11">
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+    <row r="9" spans="8:13">
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="6:11">
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="8:13">
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1674,26 +1783,26 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="3" width="29" style="6" customWidth="1"/>
-    <col min="4" max="4" width="20" style="6" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="6" customWidth="1"/>
-    <col min="6" max="7" width="29.875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="6" customWidth="1"/>
-    <col min="9" max="10" width="29.875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="17.125" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="6"/>
+    <col min="2" max="5" width="29" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="6" customWidth="1"/>
+    <col min="8" max="9" width="29.875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="17.125" style="6" customWidth="1"/>
+    <col min="11" max="12" width="29.875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="17.125" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:13">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1727,52 +1836,64 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:13">
       <c r="A2" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="9"/>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:2">
@@ -1783,129 +1904,414 @@
     </row>
     <row r="5" s="5" customFormat="1" spans="1:2">
       <c r="A5" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:11">
+    <row r="6" s="1" customFormat="1" spans="1:13">
       <c r="A6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" ht="17.25" spans="2:11">
+        <v>30</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="2:13">
       <c r="B7" s="6">
         <v>310001</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="C7" s="6" t="str">
+        <f t="shared" ref="C7:C10" si="0">_xlfn.CONCAT("castname_",B7)</f>
+        <v>castname_310001</v>
+      </c>
+      <c r="D7" s="6" t="str">
+        <f t="shared" ref="D7:D10" si="1">_xlfn.CONCAT("castdesc_",B7)</f>
+        <v>castdesc_310001</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="12">
         <v>3000</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="12">
+      <c r="K7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="12">
         <v>3000</v>
       </c>
     </row>
-    <row r="8" ht="17.25" spans="2:11">
+    <row r="8" ht="17.25" spans="2:13">
       <c r="B8" s="6">
         <v>310002</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="12">
+      <c r="C8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>castname_310002</v>
+      </c>
+      <c r="D8" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>castdesc_310002</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="12">
         <v>3000</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="12">
+      <c r="K8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="12">
         <v>3000</v>
       </c>
     </row>
-    <row r="9" ht="17.25" spans="2:11">
+    <row r="9" ht="17.25" spans="2:13">
       <c r="B9" s="6">
         <v>310003</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="C9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>castname_310003</v>
+      </c>
+      <c r="D9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>castdesc_310003</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="12">
+        <v>3000</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="2:13">
+      <c r="B10" s="6">
+        <v>310004</v>
+      </c>
+      <c r="C10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>castname_310004</v>
+      </c>
+      <c r="D10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>castdesc_310004</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="12">
+        <v>3000</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="6">
+        <f>1000*15</f>
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="8" width="29.875" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="17.125" customWidth="1"/>
+    <col min="11" max="11" width="29.875" customWidth="1"/>
+    <col min="12" max="12" width="19.75" customWidth="1"/>
+    <col min="13" max="13" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:13">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:13">
+      <c r="A2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="16.5" spans="1:4">
+      <c r="A3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="16.5" spans="1:2">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="16.5" spans="1:2">
+      <c r="A5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="16.5" spans="1:13">
+      <c r="A6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="M6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="12">
+    </row>
+    <row r="7" s="6" customFormat="1" ht="17.25" spans="2:13">
+      <c r="B7" s="6">
+        <v>410001</v>
+      </c>
+      <c r="C7" s="6" t="str">
+        <f>_xlfn.CONCAT("castname_",B7)</f>
+        <v>castname_410001</v>
+      </c>
+      <c r="D7" s="6" t="str">
+        <f>_xlfn.CONCAT("castdesc_",B7)</f>
+        <v>castdesc_410001</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="12">
         <v>3000</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="12">
+      <c r="K7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="12">
         <v>3000</v>
       </c>
     </row>
